--- a/pickle/rolling_corr_excel_target_index_상해종합_simulation_term_type_2_window_size_24.xlsx
+++ b/pickle/rolling_corr_excel_target_index_상해종합_simulation_term_type_2_window_size_24.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>상해종합_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>상해종합_CNY/USD</t>
   </si>
   <si>
-    <t>상해종합_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>상해종합_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>상해종합_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>상해종합_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>상해종합_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_OECD 소비자물가</t>
   </si>
   <si>
-    <t>상해종합_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>상해종합_두바이유가</t>
   </si>
   <si>
-    <t>상해종합_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>상해종합_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>상해종합_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>상해종합_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>상해종합_미국 REER</t>
   </si>
   <si>
-    <t>상해종합_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>상해종합_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>상해종합_발틱 해운임지수</t>
   </si>
   <si>
-    <t>상해종합_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>상해종합_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>상해종합_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>상해종합_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>상해종합_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>상해종합_유로존 Core CPI</t>
   </si>
   <si>
-    <t>상해종합_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>상해종합_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>상해종합_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>상해종합_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>상해종합_일본 ESI</t>
   </si>
   <si>
-    <t>상해종합_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_일본 REER</t>
   </si>
   <si>
-    <t>상해종합_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>상해종합_중국 M1 YoY</t>
   </si>
   <si>
-    <t>상해종합_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>상해종합_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>상해종합_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>상해종합_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>상해종합_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,913 +1893,763 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
@@ -2882,31 +2657,31 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -2918,79 +2693,79 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -2999,361 +2774,361 @@
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
         <v>2</v>
       </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BL3" t="n">
         <v>2</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="BM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
         <v>2</v>
       </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
+      <c r="BR3" t="n">
         <v>2</v>
       </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="n">
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
         <v>2</v>
       </c>
-      <c r="BN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
       <c r="BU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
         <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX3" t="n">
         <v>3</v>
       </c>
       <c r="BY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD3" t="n">
         <v>2</v>
       </c>
-      <c r="CA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CC3" t="n">
+      <c r="DE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DL3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO3" t="n">
         <v>2</v>
       </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
+      <c r="DP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT3" t="n">
         <v>2</v>
       </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CR3" t="n">
+      <c r="DU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EG3" t="n">
         <v>2</v>
       </c>
-      <c r="CS3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT3" t="n">
+      <c r="EH3" t="n">
         <v>2</v>
       </c>
-      <c r="CU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV3" t="n">
+      <c r="EI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ER3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
         <v>2</v>
       </c>
-      <c r="CW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI3" t="n">
-        <v>2</v>
-      </c>
-      <c r="DJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="DV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU3" t="n">
-        <v>2</v>
-      </c>
-      <c r="EV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX3" t="n">
-        <v>0</v>
-      </c>
       <c r="EY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
       </c>
       <c r="FA3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="FB3" t="n">
         <v>0</v>
       </c>
       <c r="FC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FD3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="FE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
         <v>0</v>
@@ -3362,28 +3137,28 @@
         <v>0</v>
       </c>
       <c r="FH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FI3" t="n">
         <v>2</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FL3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="FM3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="FN3" t="n">
         <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FP3" t="n">
         <v>0</v>
@@ -3392,10 +3167,10 @@
         <v>0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="FS3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="FT3" t="n">
         <v>3</v>
@@ -3404,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="FW3" t="n">
         <v>3</v>
@@ -3413,73 +3188,73 @@
         <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GB3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="GC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GD3" t="n">
         <v>0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GI3" t="n">
         <v>2</v>
       </c>
-      <c r="GG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GH3" t="n">
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
         <v>2</v>
       </c>
-      <c r="GI3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
       <c r="GN3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GO3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GP3" t="n">
         <v>0</v>
       </c>
       <c r="GQ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GS3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GT3" t="n">
         <v>0</v>
       </c>
       <c r="GU3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="GV3" t="n">
         <v>3</v>
@@ -3488,16 +3263,16 @@
         <v>1</v>
       </c>
       <c r="GX3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="GY3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="HA3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HB3" t="n">
         <v>0</v>
@@ -3515,13 +3290,13 @@
         <v>3</v>
       </c>
       <c r="HG3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HH3" t="n">
         <v>0</v>
       </c>
       <c r="HI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HJ3" t="n">
         <v>3</v>
@@ -3530,58 +3305,58 @@
         <v>3</v>
       </c>
       <c r="HL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HN3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HO3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="HP3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="HR3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="HS3" t="n">
         <v>3</v>
       </c>
       <c r="HT3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HU3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="HY3" t="n">
         <v>3</v>
       </c>
       <c r="HZ3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="IA3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IB3" t="n">
         <v>2</v>
       </c>
       <c r="IC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ID3" t="n">
         <v>3</v>
@@ -3596,933 +3371,783 @@
         <v>0</v>
       </c>
       <c r="IH3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="II3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IJ3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="IK3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="IL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IM3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IP3" t="n">
         <v>0</v>
       </c>
-      <c r="IQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.8815214618587588</v>
+        <v>-0.3122170516258302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8696313623786935</v>
+        <v>0.08389456977129406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9041388925286701</v>
+        <v>0.7018690983000886</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6930360199834442</v>
+        <v>-0.3673009027575774</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6743180157928496</v>
+        <v>0.5428713644544948</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4288533697711895</v>
+        <v>0.5327257644048956</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8199618296727638</v>
+        <v>-0.06806521946428928</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8118107328224236</v>
+        <v>0.2228870441831135</v>
       </c>
       <c r="J4" t="n">
-        <v>0.8323529681774755</v>
+        <v>-0.6861644934922493</v>
       </c>
       <c r="K4" t="n">
-        <v>0.829485393272019</v>
+        <v>0.5559009581318826</v>
       </c>
       <c r="L4" t="n">
-        <v>0.838268218315363</v>
+        <v>-0.8297814160821746</v>
       </c>
       <c r="M4" t="n">
-        <v>0.7930057482570153</v>
+        <v>0.1288381188194619</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8381215255312782</v>
+        <v>-0.7461094951426672</v>
       </c>
       <c r="O4" t="n">
-        <v>0.8522981753581708</v>
+        <v>0.2241275351362502</v>
       </c>
       <c r="P4" t="n">
-        <v>0.3169693936510669</v>
+        <v>0.2521583807106123</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.4358252568789235</v>
+        <v>0.2727167819563152</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8586864253938166</v>
+        <v>0.3465602868054782</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8540101859286193</v>
+        <v>-0.1244352208261518</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8139764243740949</v>
+        <v>0.6301931784226229</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7710178337838637</v>
+        <v>0.3248052730974307</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7914362143063142</v>
+        <v>0.6248683202906906</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8039113350231473</v>
+        <v>-0.2292286949475918</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4878975968307896</v>
+        <v>0.2591104733836805</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6659954555172433</v>
+        <v>0.3030927800563815</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.5645991898924009</v>
+        <v>0.433760984458221</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.891487476521476</v>
+        <v>0.2495837180015515</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.8291853513782276</v>
+        <v>0.4246776903699205</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.8007118425146993</v>
+        <v>-0.2498140082433053</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.786554263344864</v>
+        <v>0.3150685472065712</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.1073121462147454</v>
+        <v>0.2702531565690169</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8136560227862248</v>
+        <v>-0.03816253539910939</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.5495441272855478</v>
+        <v>0.6736094550527929</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.7746853836634281</v>
+        <v>0.4465523792551264</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.4978208857974044</v>
+        <v>0.3891701641037087</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.8308204070344175</v>
+        <v>-0.5500322271191823</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.6176909617409495</v>
+        <v>0.4730698933799149</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7415748175302082</v>
+        <v>-0.5743549444602521</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.4084138784783442</v>
+        <v>-0.3525744918248013</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.5206507023918225</v>
+        <v>0.3230222967998255</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.7946601199321454</v>
+        <v>0.3868977017024404</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3175823755724006</v>
+        <v>-0.1534727673464327</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.755393855365658</v>
+        <v>-0.3686444694932142</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.2985101925080571</v>
+        <v>-0.71601868296416</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.8252923434775056</v>
+        <v>0.2785343760710772</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.4359052109548755</v>
+        <v>0.2082899367903349</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.906178833167569</v>
+        <v>0.1756821858251221</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.1484760360248785</v>
+        <v>0.2603828117301277</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.6973723731467759</v>
+        <v>0.3453325321842434</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.5990195969077711</v>
+        <v>0.2884930216963165</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.8290538476602886</v>
+        <v>0.1817254366106406</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.8288226858826088</v>
+        <v>0.1542046255673375</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.8598237237968338</v>
+        <v>0.2986346530027126</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.8140961125775074</v>
+        <v>0.1781705450099108</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.8138506024442302</v>
+        <v>-0.2444296937155185</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.8333019192936656</v>
+        <v>0.2421779322295491</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.8297981472125053</v>
+        <v>0.6381716433348495</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.8610578239936416</v>
+        <v>0.1671047891848884</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.7922758509718822</v>
+        <v>-0.6373185470816539</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8439114166454608</v>
+        <v>-0.1922344572424303</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.7339314369603136</v>
+        <v>-0.3780859952049067</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.8068526830052717</v>
+        <v>0.2360500168578209</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.640311494908719</v>
+        <v>-0.1176651614939784</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.3867443908216669</v>
+        <v>0.1933648903841559</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.8447793975156339</v>
+        <v>0.1902832254408333</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.7935853480640223</v>
+        <v>0.1116288566380935</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.8387200496415039</v>
+        <v>-0.3671806534753926</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.2159435899119057</v>
+        <v>0.1861403402518723</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.7076805307311275</v>
+        <v>0.7928549867623567</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.3091273011668585</v>
+        <v>-0.06396793072199954</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8629561768746821</v>
+        <v>0.2334214832865417</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.7337464310308105</v>
+        <v>0.8017413527649673</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.5219480589006478</v>
+        <v>0.7502362664680132</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.5700359898968621</v>
+        <v>0.37686030486693</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.8381682512828924</v>
+        <v>0.5626123499524874</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.6660613770714511</v>
+        <v>-0.7461722319054988</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.8277772569239007</v>
+        <v>-0.7032522262778004</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.778747169818906</v>
+        <v>-0.1277125159106067</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.8125949481627226</v>
+        <v>0.2856656786308834</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.6995658803756584</v>
+        <v>-0.1421879877186282</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.8084986008086006</v>
+        <v>0.4504510547199508</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8334978799276833</v>
+        <v>0.6605919931172151</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.8067852184913105</v>
+        <v>0.6722357717270082</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.8593839292021592</v>
+        <v>0.2545495424760272</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8679900632950182</v>
+        <v>-0.7613305516723761</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.5217242053426607</v>
+        <v>-0.4943654722845353</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.7090833867049495</v>
+        <v>0.7825263155347155</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8643315396908773</v>
+        <v>0.269978872369482</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.6776169961971492</v>
+        <v>0.8101009591312608</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.8638866409332795</v>
+        <v>0.3527833867007675</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.724182843248099</v>
+        <v>0.6978532622793839</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.6505022487769185</v>
+        <v>-0.06477842194030214</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.4838955847340185</v>
+        <v>-0.3468017523460187</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.791849305488415</v>
+        <v>-0.09120491045021266</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.5762366414082556</v>
+        <v>-0.110418406358589</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.5800764810392962</v>
+        <v>0.817408017005001</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.2133436325704305</v>
+        <v>0.4509890678163614</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.623881047028795</v>
+        <v>-0.3351232761402255</v>
       </c>
       <c r="CU4" t="n">
-        <v>-0.1359659417207488</v>
+        <v>0.1384747614179995</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.6348743498029208</v>
+        <v>0.5681122709445983</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.7698078724201817</v>
+        <v>0.2648251968184503</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.1328454260604162</v>
+        <v>-0.3249118742369783</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.6761118820913057</v>
+        <v>-0.2514907491053379</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.8114426458658895</v>
+        <v>-0.4397370200821404</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.3034258487478682</v>
+        <v>0.4235482485011352</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.8871102553684705</v>
+        <v>0.4853609331774781</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.1661749985960642</v>
+        <v>-0.3760286248381962</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.8491883691150874</v>
+        <v>0.4550654929160114</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.9197271938207586</v>
+        <v>0.6823260796197367</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.7696008755998303</v>
+        <v>0.1643487952269717</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.7800406280804061</v>
+        <v>-0.3312261375945863</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.3151789800716056</v>
+        <v>0.6261408047809081</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.5301291839834393</v>
+        <v>-0.2557276731506904</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.7424450804578021</v>
+        <v>-0.719081545733477</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.8371279588285674</v>
+        <v>-0.3869300611563348</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.551081378791855</v>
+        <v>0.4237124691295756</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.6242497560391804</v>
+        <v>0.139021949437076</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7133543136597762</v>
+        <v>0.188236437285769</v>
       </c>
       <c r="DO4" t="n">
-        <v>-0.1678153482967474</v>
+        <v>-0.4283554028307116</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.6898149736816306</v>
+        <v>-0.6167814121887776</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8202365383451286</v>
+        <v>-0.06477842194030214</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.7663484383267082</v>
+        <v>-0.1803051790585698</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.3288431038663188</v>
+        <v>0.139202647048128</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.6741647159999025</v>
+        <v>-0.1315207036079238</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.7416559216406768</v>
+        <v>-0.2513997589523009</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.3817880507269754</v>
+        <v>0.04594527333098136</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.4116809172357651</v>
+        <v>0.6170826320883646</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.7035828225297304</v>
+        <v>-0.4265050934494881</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.6931099112862026</v>
+        <v>-0.02969462302711528</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.790324620193972</v>
+        <v>0.2696034462920693</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.2151915409275835</v>
+        <v>0.2558194759861209</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.358870053551967</v>
+        <v>0.1180264539256097</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.7948356710690683</v>
+        <v>-0.3866941292774257</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.7698078724201817</v>
+        <v>-0.4195651451818795</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.7542059606809566</v>
+        <v>-0.6675261064617375</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.7766824708044793</v>
+        <v>-0.2830009093258926</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.7288172902426073</v>
+        <v>-0.2539181513796745</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.7445607641933288</v>
+        <v>0.04936373503414465</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.576801481605573</v>
+        <v>-0.3025347005375427</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.8279127579090063</v>
+        <v>-0.1205107562360839</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.8888824717027946</v>
+        <v>0.1782397781791129</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.8316151988223582</v>
+        <v>0.1330544744421705</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.6021259541952388</v>
+        <v>0.1182375950232363</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.8591058337418431</v>
+        <v>-0.1225226561141214</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.8531620146778336</v>
+        <v>0.1163356484135249</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.5144477114240117</v>
+        <v>-0.120973098555131</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.6954813365686152</v>
+        <v>-0.1196307947302311</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.6099189645555004</v>
+        <v>-0.224825165495745</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.07092289217547902</v>
+        <v>-0.3265115884976527</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.6673182311683645</v>
+        <v>0.3628083871526534</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.8186989473886948</v>
+        <v>-0.3207095495337945</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.3313431223761751</v>
+        <v>0.09771499934610132</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.727521488599531</v>
+        <v>0.2514992084336373</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.8421330014986046</v>
+        <v>0.2553553647337433</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.7602601904777958</v>
+        <v>0.2351167211139761</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.7804124461283873</v>
+        <v>1</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8246050254360807</v>
+        <v>0.9525545302123765</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.8118011453549155</v>
+        <v>-0.6215006360561539</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.775283040758291</v>
+        <v>0.5559009581318826</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.1334587071348261</v>
+        <v>0.3473448376472393</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.6170938027009025</v>
+        <v>0.6205091001519227</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8664527175897138</v>
+        <v>0.3035352210191133</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.6661481710593516</v>
+        <v>-0.1291416188748174</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.89311235645503</v>
+        <v>0.2604926624457901</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.6197921388306243</v>
+        <v>0.8086044133934525</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.748195839970756</v>
+        <v>0.701801312042972</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8160091324178838</v>
+        <v>0.5996909953452506</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.8255487180320766</v>
+        <v>0.3608998700910826</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6736227271942481</v>
+        <v>0.268019685759088</v>
       </c>
       <c r="FN4" t="n">
-        <v>1</v>
+        <v>0.6414862397972302</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.9631075275342333</v>
+        <v>-0.225253037306877</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.737927515371457</v>
+        <v>-0.527670041231407</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.4358252568789235</v>
+        <v>-0.2871708182592481</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.8196933784162601</v>
+        <v>0.3467649193004117</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.7367258450501712</v>
+        <v>0.6697748667399905</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.3779416005781748</v>
+        <v>-0.2419988758596161</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.3926510038344674</v>
+        <v>0.268019685759088</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.7577427791075412</v>
+        <v>0.7707508656552994</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.190987790719102</v>
+        <v>0.2879534867878136</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.2088703071125289</v>
+        <v>0.3413022544648617</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.2884538523994636</v>
+        <v>-0.5679155373666823</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.8467275483569818</v>
+        <v>0.3995642860177175</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.7542916435375361</v>
+        <v>-0.3396477164308345</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.4085259980286729</v>
+        <v>0.5030158590798625</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.8037607186134029</v>
+        <v>0.3841010665023399</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.8391480842876236</v>
+        <v>-0.8172297791352292</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.4069989999841555</v>
+        <v>0.3692353079626743</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.8681660277362193</v>
+        <v>0.05916730397335244</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.7869935382561133</v>
+        <v>-0.2937031435479083</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.5217860014104951</v>
+        <v>0.1652555438906446</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.7196513843719904</v>
+        <v>0.2167713837641127</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.663769494046352</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.4894235990033614</v>
+        <v>-0.250767462178238</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.8037607186134029</v>
+        <v>-0.270563650766705</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.2845972474685492</v>
+        <v>0.2256502730278298</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.8565288988720008</v>
+        <v>0.4945705613672854</v>
       </c>
       <c r="GO4" t="n">
-        <v>0.7275869674968506</v>
+        <v>-0.7566184726943866</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7768786454924284</v>
+        <v>0.3864123546118017</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.7937882652980023</v>
+        <v>0</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.2797085775525767</v>
+        <v>0</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.8648082695025452</v>
+        <v>0.2135316980385403</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.7024752020806669</v>
+        <v>0.1658055904191446</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.7934040566719028</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.8293194044904811</v>
+        <v>-0.1841575507724211</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.7157055359502669</v>
+        <v>0.286087376602609</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.5784132374748502</v>
+        <v>-0.394742495925813</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.8199648239179115</v>
+        <v>0.4727185486651184</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.8006633665411615</v>
+        <v>0.4410884647725789</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.3443362754289643</v>
+        <v>0.4491202909295013</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.7617205061628687</v>
+        <v>-0.3124010152905508</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.7479926845879006</v>
+        <v>-0.1355594907695783</v>
       </c>
       <c r="HD4" t="n">
-        <v>0</v>
+        <v>-0.1937654184540606</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.3906026604943195</v>
+        <v>0.7378454767190941</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.3742062960663906</v>
+        <v>0.3615412463207566</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.8907525361140901</v>
+        <v>0.7554547337297883</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.6252364681653767</v>
+        <v>0.08252989643046185</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.8424943479198701</v>
+        <v>0.1695879688736147</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.8309373627050811</v>
+        <v>0.5531347793015029</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7146482329232567</v>
+        <v>-0.5413374842983111</v>
       </c>
       <c r="HL4" t="n">
-        <v>0</v>
+        <v>0.4791641088473613</v>
       </c>
       <c r="HM4" t="n">
-        <v>0</v>
+        <v>-0.1208347779378316</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7584341250788478</v>
+        <v>0.2711521454172248</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.6270134991573487</v>
+        <v>0.3371513889150647</v>
       </c>
       <c r="HP4" t="n">
-        <v>0</v>
+        <v>0.2933415113296524</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.3208504321577403</v>
+        <v>0.03843417706056684</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.4111981914848133</v>
+        <v>-0.550732894535599</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5875348591182187</v>
+        <v>-0.1922024431585634</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.66789633449956</v>
+        <v>-0.4460579719540381</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.4208303641741296</v>
+        <v>0.6668886033161547</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8603896478564056</v>
+        <v>0.6245012254132918</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.8206058395995321</v>
+        <v>0.3405013630661783</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.7906194134464533</v>
+        <v>0.5548305957257672</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.5704445499519734</v>
+        <v>0.5999617856406541</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.7788917769071645</v>
+        <v>0.4067457758230013</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.607981571602668</v>
+        <v>-0.2547842081699472</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.3794595066165734</v>
+        <v>0.2884502892831431</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.5918086811246759</v>
+        <v>0.5586358956649488</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.7574149752411358</v>
+        <v>0.1117356387717392</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.29791911041653</v>
+        <v>0.4889594827866153</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.7165534569032972</v>
+        <v>0.1046695696619025</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.8529124046139307</v>
+        <v>-0.5637634529318861</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.6597227890992868</v>
+        <v>0.1530114892728422</v>
       </c>
       <c r="II4" t="n">
-        <v>0.5677518208893391</v>
+        <v>0.4889594827866153</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.5946898603978468</v>
+        <v>0.6325939807009435</v>
       </c>
       <c r="IK4" t="n">
-        <v>0.3105381287130209</v>
+        <v>-0.3158133278813322</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.7490777363379303</v>
+        <v>0.2408842953932147</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1562521821871177</v>
+        <v>0.4423857762057</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.2718268367406071</v>
+        <v>-0.5423371979857499</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.2225537734567735</v>
+        <v>0.3839603967118581</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.1466181455441064</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.7646148803307794</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.7783654932181894</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4079614760276085</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6997308021089098</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.6005307342218074</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.7523293280776646</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.7336192495126067</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.6543473809172218</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>0.3003808672957849</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.4388466185835446</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1167073107175207</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.3384479274849626</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.6281029288217881</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.6925314234789669</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2444073744396471</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.6599513768859201</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.278502805868204</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.6925314234789669</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8442669999600403</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.3196391873231966</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.2949167302500049</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.3238956432519591</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.7543520879613391</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.8533183724500989</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.905875244087224</v>
+        <v>0.7179722951430617</v>
       </c>
     </row>
   </sheetData>
